--- a/Capstone_Real_Estate_Profits_Data_Analytics/3.1Guide_Spreadsheets.xlsx
+++ b/Capstone_Real_Estate_Profits_Data_Analytics/3.1Guide_Spreadsheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/332dbdf67b1791cd/Study/mySQL/Coursera_Managing_Big_Data_with_MySQL/Capstone_Real_Estate_Profits_Data_Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apocrypse\OneDrive\Study\mySQL\Coursera_Managing_Big_Data_with_MySQL\Capstone_Real_Estate_Profits_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_61E62A59C1992527699E6DE732E612E0FF65CEA5" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{B885C693-5E0A-49A4-8456-6AF8504C8A3A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_61E62A59C1992527699E6DE732E612E0FF65CEA5" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{75770120-7CF4-4BF5-8EF3-3281BFDD7C8C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="7992" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="7992" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Cash Flows" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -32,7 +33,8 @@
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Solver Revenue Maximization'!$E$42</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Solver Revenue Maximization'!$E$26</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -44,7 +46,7 @@
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -1496,7 +1498,7 @@
     <xf numFmtId="6" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="120">
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
@@ -4141,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4445,7 +4447,7 @@
         <v>128</v>
       </c>
       <c r="C17" s="11">
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -4463,7 +4465,7 @@
         <v>129</v>
       </c>
       <c r="C18" s="70">
-        <v>1.3</v>
+        <v>0.99</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -4553,15 +4555,15 @@
       </c>
       <c r="C23" s="102">
         <f>(B23*C$17) +C$18</f>
-        <v>0.9</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="D23" s="18">
         <f>B23*C23</f>
-        <v>90</v>
+        <v>-1.0000000000000009</v>
       </c>
       <c r="E23" s="37">
         <f>D23*365</f>
-        <v>32850</v>
+        <v>-365.00000000000034</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="17"/>
@@ -4578,15 +4580,15 @@
       </c>
       <c r="C24" s="102">
         <f>(B24*C$17) +C$18</f>
-        <v>0.70000000000000007</v>
+        <v>-0.51</v>
       </c>
       <c r="D24" s="104">
         <f>B24*C24</f>
-        <v>105.00000000000001</v>
+        <v>-76.5</v>
       </c>
       <c r="E24" s="105">
         <f>D24*365</f>
-        <v>38325.000000000007</v>
+        <v>-27922.5</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="17"/>
@@ -4604,15 +4606,15 @@
       </c>
       <c r="C25" s="106">
         <f>(B25*C$17) +C$18</f>
-        <v>0.5</v>
+        <v>-1.01</v>
       </c>
       <c r="D25" s="99">
         <f>B25*C25</f>
-        <v>100</v>
+        <v>-202</v>
       </c>
       <c r="E25" s="100">
         <f t="shared" ref="E25" si="4">D25*365</f>
-        <v>36500</v>
+        <v>-73730</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="17"/>
@@ -4625,19 +4627,19 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="131"/>
       <c r="B26" s="107">
-        <v>150</v>
+        <v>49.499999903944683</v>
       </c>
       <c r="C26" s="108">
         <f>(B26*C$17) +C$18</f>
-        <v>0.70000000000000007</v>
+        <v>0.49500000096055313</v>
       </c>
       <c r="D26" s="109">
         <f>B26*C26</f>
-        <v>105.00000000000001</v>
+        <v>24.502499999999998</v>
       </c>
       <c r="E26" s="152">
         <f>D26*365</f>
-        <v>38325.000000000007</v>
+        <v>8943.4124999999985</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="17"/>
